--- a/downloaded_files/CMPS458_Tutorial-35557.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35557.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Fatma Gamal Zeinelabdeen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم محمد سيد احمد على عبد ربه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim mohamed sayed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1210,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4148167014</x:v>
+        <x:v>45914.0128757292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.0128757292</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45912.3415796644</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45912.3415796644</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Tutorial-35557.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35557.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
   </x:si>
   <x:si>
+    <x:t>4220112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انس علاء محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210205</x:t>
   </x:si>
   <x:si>
@@ -94,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Khaled Ali Fathi Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد هشام فهمي محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210013</x:t>
@@ -362,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -849,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4146233796</x:v>
+        <x:v>45927.4698664699</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4144715278</x:v>
+        <x:v>45906.4146233796</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45906.4144715278</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45927.5026321412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.0128757292</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45914.0128757292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1524,70 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45906.414388044</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45912.3415796644</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Tutorial-35557.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35557.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Ahmed Abdelaziz Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد صلاح الدين امام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Salah Eldin Emam</x:t>
   </x:si>
   <x:si>
     <x:t>1210301</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45929.3840627662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45912.3415796644</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Tutorial-35557.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35557.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Noor Ahmed Mostafa Ahmed AlHadidi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين حسن حامد محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1210330</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45931.4614775463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45912.3415796644</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Tutorial-35557.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35557.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اميره محمد عصام احمد عبدالغني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
   </x:si>
   <x:si>
     <x:t>4220112</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -853,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4143751157</x:v>
+        <x:v>45927.4698664699</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4698664699</x:v>
+        <x:v>45906.4146233796</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4146233796</x:v>
+        <x:v>45906.4144715278</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4144715278</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45927.5026321412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.5026321412</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45914.0128757292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.0128757292</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45929.3840627662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45929.3840627662</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45931.4614775463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45931.4614775463</x:v>
+        <x:v>45912.3415796644</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45912.3415796644</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Tutorial-35557.xlsx
+++ b/downloaded_files/CMPS458_Tutorial-35557.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam mahrous mohamed abdelaal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي أسامة عبدالحميد توفيق عبد الحميد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>1210032</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45912.543306169</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45931.4614775463</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45931.4614775463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45912.3415796644</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
